--- a/Team-Data/2013-14/3-15-2013-14.xlsx
+++ b/Team-Data/2013-14/3-15-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,16 +733,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E2" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F2" t="n">
         <v>35</v>
       </c>
       <c r="G2" t="n">
-        <v>0.453</v>
+        <v>0.444</v>
       </c>
       <c r="H2" t="n">
         <v>48.4</v>
@@ -690,22 +757,22 @@
         <v>0.459</v>
       </c>
       <c r="L2" t="n">
-        <v>9.699999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="M2" t="n">
-        <v>25.5</v>
+        <v>25.4</v>
       </c>
       <c r="N2" t="n">
-        <v>0.379</v>
+        <v>0.378</v>
       </c>
       <c r="O2" t="n">
         <v>16.8</v>
       </c>
       <c r="P2" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.777</v>
+        <v>0.781</v>
       </c>
       <c r="R2" t="n">
         <v>8.9</v>
@@ -723,37 +790,37 @@
         <v>15.3</v>
       </c>
       <c r="W2" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="X2" t="n">
         <v>4.2</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Z2" t="n">
         <v>19</v>
       </c>
       <c r="AA2" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="AB2" t="n">
-        <v>101.6</v>
+        <v>101.7</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.8</v>
+        <v>-0.9</v>
       </c>
       <c r="AD2" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AE2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF2" t="n">
         <v>18</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH2" t="n">
         <v>10</v>
@@ -777,19 +844,19 @@
         <v>5</v>
       </c>
       <c r="AO2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP2" t="n">
         <v>22</v>
       </c>
       <c r="AQ2" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AR2" t="n">
         <v>28</v>
       </c>
       <c r="AS2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AT2" t="n">
         <v>28</v>
@@ -807,7 +874,7 @@
         <v>24</v>
       </c>
       <c r="AY2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ2" t="n">
         <v>4</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-15-2013-14</t>
+          <t>2014-03-15</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>-4</v>
       </c>
       <c r="AD3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE3" t="n">
         <v>25</v>
@@ -947,7 +1014,7 @@
         <v>11</v>
       </c>
       <c r="AK3" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AL3" t="n">
         <v>24</v>
@@ -971,7 +1038,7 @@
         <v>7</v>
       </c>
       <c r="AS3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT3" t="n">
         <v>14</v>
@@ -980,7 +1047,7 @@
         <v>25</v>
       </c>
       <c r="AV3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW3" t="n">
         <v>23</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-15-2013-14</t>
+          <t>2014-03-15</t>
         </is>
       </c>
     </row>
@@ -1030,16 +1097,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E4" t="n">
         <v>33</v>
       </c>
       <c r="F4" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G4" t="n">
-        <v>0.516</v>
+        <v>0.524</v>
       </c>
       <c r="H4" t="n">
         <v>48.4</v>
@@ -1048,31 +1115,31 @@
         <v>35.3</v>
       </c>
       <c r="J4" t="n">
-        <v>78.09999999999999</v>
+        <v>78.2</v>
       </c>
       <c r="K4" t="n">
         <v>0.452</v>
       </c>
       <c r="L4" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="M4" t="n">
         <v>22.5</v>
       </c>
       <c r="N4" t="n">
-        <v>0.367</v>
+        <v>0.365</v>
       </c>
       <c r="O4" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="P4" t="n">
-        <v>24.4</v>
+        <v>24.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.762</v>
+        <v>0.763</v>
       </c>
       <c r="R4" t="n">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="S4" t="n">
         <v>29.3</v>
@@ -1093,22 +1160,22 @@
         <v>4</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Z4" t="n">
         <v>22</v>
       </c>
       <c r="AA4" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AB4" t="n">
-        <v>97.40000000000001</v>
+        <v>97.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>-1.4</v>
+        <v>-1.3</v>
       </c>
       <c r="AD4" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AE4" t="n">
         <v>15</v>
@@ -1117,7 +1184,7 @@
         <v>14</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH4" t="n">
         <v>10</v>
@@ -1132,7 +1199,7 @@
         <v>14</v>
       </c>
       <c r="AL4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM4" t="n">
         <v>11</v>
@@ -1141,13 +1208,13 @@
         <v>13</v>
       </c>
       <c r="AO4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP4" t="n">
         <v>11</v>
       </c>
       <c r="AQ4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR4" t="n">
         <v>29</v>
@@ -1168,7 +1235,7 @@
         <v>6</v>
       </c>
       <c r="AX4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AY4" t="n">
         <v>8</v>
@@ -1183,7 +1250,7 @@
         <v>22</v>
       </c>
       <c r="BC4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-15-2013-14</t>
+          <t>2014-03-15</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-1.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE5" t="n">
         <v>16</v>
@@ -1302,7 +1369,7 @@
         <v>17</v>
       </c>
       <c r="AH5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI5" t="n">
         <v>26</v>
@@ -1350,7 +1417,7 @@
         <v>29</v>
       </c>
       <c r="AX5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY5" t="n">
         <v>19</v>
@@ -1362,7 +1429,7 @@
         <v>10</v>
       </c>
       <c r="BB5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BC5" t="n">
         <v>18</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-15-2013-14</t>
+          <t>2014-03-15</t>
         </is>
       </c>
     </row>
@@ -1394,16 +1461,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E6" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F6" t="n">
         <v>29</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5610000000000001</v>
+        <v>0.554</v>
       </c>
       <c r="H6" t="n">
         <v>48.7</v>
@@ -1415,22 +1482,22 @@
         <v>80.40000000000001</v>
       </c>
       <c r="K6" t="n">
-        <v>0.431</v>
+        <v>0.432</v>
       </c>
       <c r="L6" t="n">
         <v>6.1</v>
       </c>
       <c r="M6" t="n">
-        <v>17.7</v>
+        <v>17.6</v>
       </c>
       <c r="N6" t="n">
-        <v>0.346</v>
+        <v>0.347</v>
       </c>
       <c r="O6" t="n">
-        <v>18</v>
+        <v>17.9</v>
       </c>
       <c r="P6" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="Q6" t="n">
         <v>0.774</v>
@@ -1442,7 +1509,7 @@
         <v>33</v>
       </c>
       <c r="T6" t="n">
-        <v>44.7</v>
+        <v>44.8</v>
       </c>
       <c r="U6" t="n">
         <v>22.4</v>
@@ -1454,13 +1521,13 @@
         <v>7.2</v>
       </c>
       <c r="X6" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Y6" t="n">
         <v>6.2</v>
       </c>
       <c r="Z6" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="AA6" t="n">
         <v>21.1</v>
@@ -1469,13 +1536,13 @@
         <v>93.40000000000001</v>
       </c>
       <c r="AC6" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="AD6" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AE6" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AF6" t="n">
         <v>13</v>
@@ -1514,7 +1581,7 @@
         <v>9</v>
       </c>
       <c r="AR6" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AS6" t="n">
         <v>8</v>
@@ -1526,13 +1593,13 @@
         <v>11</v>
       </c>
       <c r="AV6" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AW6" t="n">
         <v>21</v>
       </c>
       <c r="AX6" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AY6" t="n">
         <v>29</v>
@@ -1547,7 +1614,7 @@
         <v>30</v>
       </c>
       <c r="BC6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-15-2013-14</t>
+          <t>2014-03-15</t>
         </is>
       </c>
     </row>
@@ -1654,19 +1721,19 @@
         <v>-4.2</v>
       </c>
       <c r="AD7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF7" t="n">
         <v>21</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI7" t="n">
         <v>23</v>
@@ -1684,10 +1751,10 @@
         <v>20</v>
       </c>
       <c r="AN7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AO7" t="n">
         <v>16</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>17</v>
       </c>
       <c r="AP7" t="n">
         <v>18</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-15-2013-14</t>
+          <t>2014-03-15</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>1.9</v>
       </c>
       <c r="AD8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE8" t="n">
         <v>9</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-15-2013-14</t>
+          <t>2014-03-15</t>
         </is>
       </c>
     </row>
@@ -1940,16 +2007,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E9" t="n">
         <v>29</v>
       </c>
       <c r="F9" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G9" t="n">
-        <v>0.439</v>
+        <v>0.446</v>
       </c>
       <c r="H9" t="n">
         <v>48.2</v>
@@ -1970,31 +2037,31 @@
         <v>23.2</v>
       </c>
       <c r="N9" t="n">
-        <v>0.36</v>
+        <v>0.361</v>
       </c>
       <c r="O9" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="P9" t="n">
         <v>26.3</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.717</v>
+        <v>0.719</v>
       </c>
       <c r="R9" t="n">
         <v>12.3</v>
       </c>
       <c r="S9" t="n">
-        <v>33.2</v>
+        <v>33</v>
       </c>
       <c r="T9" t="n">
-        <v>45.4</v>
+        <v>45.3</v>
       </c>
       <c r="U9" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="V9" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="W9" t="n">
         <v>7.3</v>
@@ -2012,13 +2079,13 @@
         <v>21.6</v>
       </c>
       <c r="AB9" t="n">
-        <v>103.5</v>
+        <v>103.7</v>
       </c>
       <c r="AC9" t="n">
         <v>-2.1</v>
       </c>
       <c r="AD9" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AE9" t="n">
         <v>18</v>
@@ -2027,10 +2094,10 @@
         <v>19</v>
       </c>
       <c r="AG9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AH9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI9" t="n">
         <v>12</v>
@@ -2039,7 +2106,7 @@
         <v>5</v>
       </c>
       <c r="AK9" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AL9" t="n">
         <v>10</v>
@@ -2048,7 +2115,7 @@
         <v>9</v>
       </c>
       <c r="AN9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO9" t="n">
         <v>8</v>
@@ -2057,7 +2124,7 @@
         <v>5</v>
       </c>
       <c r="AQ9" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AR9" t="n">
         <v>5</v>
@@ -2066,13 +2133,13 @@
         <v>7</v>
       </c>
       <c r="AT9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU9" t="n">
         <v>12</v>
       </c>
       <c r="AV9" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AW9" t="n">
         <v>20</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-15-2013-14</t>
+          <t>2014-03-15</t>
         </is>
       </c>
     </row>
@@ -2122,34 +2189,34 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E10" t="n">
         <v>25</v>
       </c>
       <c r="F10" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G10" t="n">
-        <v>0.379</v>
+        <v>0.385</v>
       </c>
       <c r="H10" t="n">
-        <v>48.3</v>
+        <v>48.2</v>
       </c>
       <c r="I10" t="n">
-        <v>38.8</v>
+        <v>38.9</v>
       </c>
       <c r="J10" t="n">
-        <v>86.7</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="K10" t="n">
-        <v>0.448</v>
+        <v>0.449</v>
       </c>
       <c r="L10" t="n">
         <v>5.8</v>
       </c>
       <c r="M10" t="n">
-        <v>18.7</v>
+        <v>18.6</v>
       </c>
       <c r="N10" t="n">
         <v>0.313</v>
@@ -2158,16 +2225,16 @@
         <v>17.2</v>
       </c>
       <c r="P10" t="n">
-        <v>25.7</v>
+        <v>25.6</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.671</v>
+        <v>0.669</v>
       </c>
       <c r="R10" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="S10" t="n">
-        <v>30.7</v>
+        <v>30.6</v>
       </c>
       <c r="T10" t="n">
         <v>45</v>
@@ -2179,7 +2246,7 @@
         <v>14.8</v>
       </c>
       <c r="W10" t="n">
-        <v>8.699999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="X10" t="n">
         <v>5.2</v>
@@ -2191,28 +2258,28 @@
         <v>20.3</v>
       </c>
       <c r="AA10" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="AB10" t="n">
         <v>100.7</v>
       </c>
       <c r="AC10" t="n">
-        <v>-3</v>
+        <v>-2.9</v>
       </c>
       <c r="AD10" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AE10" t="n">
         <v>23</v>
       </c>
       <c r="AF10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG10" t="n">
         <v>23</v>
       </c>
       <c r="AH10" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AI10" t="n">
         <v>8</v>
@@ -2221,7 +2288,7 @@
         <v>4</v>
       </c>
       <c r="AK10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL10" t="n">
         <v>29</v>
@@ -2233,7 +2300,7 @@
         <v>29</v>
       </c>
       <c r="AO10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP10" t="n">
         <v>6</v>
@@ -2266,7 +2333,7 @@
         <v>18</v>
       </c>
       <c r="AZ10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA10" t="n">
         <v>14</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-15-2013-14</t>
+          <t>2014-03-15</t>
         </is>
       </c>
     </row>
@@ -2394,7 +2461,7 @@
         <v>8</v>
       </c>
       <c r="AH11" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AI11" t="n">
         <v>7</v>
@@ -2430,19 +2497,19 @@
         <v>3</v>
       </c>
       <c r="AT11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AU11" t="n">
         <v>8</v>
       </c>
       <c r="AV11" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW11" t="n">
         <v>13</v>
       </c>
       <c r="AX11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AY11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-15-2013-14</t>
+          <t>2014-03-15</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>4.4</v>
       </c>
       <c r="AD12" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="AE12" t="n">
         <v>5</v>
@@ -2612,7 +2679,7 @@
         <v>4</v>
       </c>
       <c r="AT12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AU12" t="n">
         <v>22</v>
@@ -2624,7 +2691,7 @@
         <v>17</v>
       </c>
       <c r="AX12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY12" t="n">
         <v>22</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-15-2013-14</t>
+          <t>2014-03-15</t>
         </is>
       </c>
     </row>
@@ -2668,61 +2735,61 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E13" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F13" t="n">
         <v>17</v>
       </c>
       <c r="G13" t="n">
-        <v>0.742</v>
+        <v>0.738</v>
       </c>
       <c r="H13" t="n">
-        <v>48.3</v>
+        <v>48.2</v>
       </c>
       <c r="I13" t="n">
         <v>36.8</v>
       </c>
       <c r="J13" t="n">
-        <v>80.90000000000001</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="K13" t="n">
-        <v>0.455</v>
+        <v>0.456</v>
       </c>
       <c r="L13" t="n">
         <v>6.8</v>
       </c>
       <c r="M13" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="N13" t="n">
-        <v>0.353</v>
+        <v>0.354</v>
       </c>
       <c r="O13" t="n">
-        <v>18.3</v>
+        <v>18.2</v>
       </c>
       <c r="P13" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.783</v>
+        <v>0.78</v>
       </c>
       <c r="R13" t="n">
-        <v>10.3</v>
+        <v>10.2</v>
       </c>
       <c r="S13" t="n">
-        <v>35.1</v>
+        <v>35</v>
       </c>
       <c r="T13" t="n">
-        <v>45.4</v>
+        <v>45.1</v>
       </c>
       <c r="U13" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="V13" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="W13" t="n">
         <v>7</v>
@@ -2731,25 +2798,25 @@
         <v>5.7</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Z13" t="n">
         <v>20.3</v>
       </c>
       <c r="AA13" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="AB13" t="n">
-        <v>98.8</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="AC13" t="n">
         <v>6.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AE13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF13" t="n">
         <v>2</v>
@@ -2758,13 +2825,13 @@
         <v>2</v>
       </c>
       <c r="AH13" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AI13" t="n">
         <v>22</v>
       </c>
       <c r="AJ13" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK13" t="n">
         <v>12</v>
@@ -2776,7 +2843,7 @@
         <v>24</v>
       </c>
       <c r="AN13" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AO13" t="n">
         <v>11</v>
@@ -2785,7 +2852,7 @@
         <v>14</v>
       </c>
       <c r="AQ13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AR13" t="n">
         <v>22</v>
@@ -2794,13 +2861,13 @@
         <v>1</v>
       </c>
       <c r="AT13" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AU13" t="n">
         <v>24</v>
       </c>
       <c r="AV13" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AW13" t="n">
         <v>24</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-15-2013-14</t>
+          <t>2014-03-15</t>
         </is>
       </c>
     </row>
@@ -2952,7 +3019,7 @@
         <v>3</v>
       </c>
       <c r="AL14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM14" t="n">
         <v>8</v>
@@ -2988,7 +3055,7 @@
         <v>7</v>
       </c>
       <c r="AX14" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AY14" t="n">
         <v>2</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-15-2013-14</t>
+          <t>2014-03-15</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>-6.7</v>
       </c>
       <c r="AD15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE15" t="n">
         <v>25</v>
@@ -3143,7 +3210,7 @@
         <v>3</v>
       </c>
       <c r="AO15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AP15" t="n">
         <v>19</v>
@@ -3179,7 +3246,7 @@
         <v>10</v>
       </c>
       <c r="BA15" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BB15" t="n">
         <v>12</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-15-2013-14</t>
+          <t>2014-03-15</t>
         </is>
       </c>
     </row>
@@ -3214,16 +3281,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E16" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F16" t="n">
         <v>27</v>
       </c>
       <c r="G16" t="n">
-        <v>0.591</v>
+        <v>0.585</v>
       </c>
       <c r="H16" t="n">
         <v>48.3</v>
@@ -3232,10 +3299,10 @@
         <v>37.7</v>
       </c>
       <c r="J16" t="n">
-        <v>81.59999999999999</v>
+        <v>81.8</v>
       </c>
       <c r="K16" t="n">
-        <v>0.462</v>
+        <v>0.461</v>
       </c>
       <c r="L16" t="n">
         <v>5</v>
@@ -3244,19 +3311,19 @@
         <v>14.1</v>
       </c>
       <c r="N16" t="n">
-        <v>0.356</v>
+        <v>0.357</v>
       </c>
       <c r="O16" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="P16" t="n">
-        <v>20.5</v>
+        <v>20.3</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.748</v>
+        <v>0.749</v>
       </c>
       <c r="R16" t="n">
-        <v>11.3</v>
+        <v>11.4</v>
       </c>
       <c r="S16" t="n">
         <v>30.8</v>
@@ -3268,40 +3335,40 @@
         <v>21.7</v>
       </c>
       <c r="V16" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="W16" t="n">
         <v>7.7</v>
       </c>
       <c r="X16" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Y16" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Z16" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="AA16" t="n">
         <v>19</v>
       </c>
       <c r="AB16" t="n">
-        <v>95.8</v>
+        <v>95.7</v>
       </c>
       <c r="AC16" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="AD16" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AE16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF16" t="n">
         <v>9</v>
       </c>
       <c r="AG16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH16" t="n">
         <v>16</v>
@@ -3322,7 +3389,7 @@
         <v>30</v>
       </c>
       <c r="AN16" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO16" t="n">
         <v>29</v>
@@ -3331,7 +3398,7 @@
         <v>28</v>
       </c>
       <c r="AQ16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AR16" t="n">
         <v>14</v>
@@ -3349,13 +3416,13 @@
         <v>5</v>
       </c>
       <c r="AW16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AX16" t="n">
         <v>14</v>
       </c>
       <c r="AY16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ16" t="n">
         <v>6</v>
@@ -3364,10 +3431,10 @@
         <v>29</v>
       </c>
       <c r="BB16" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BC16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-15-2013-14</t>
+          <t>2014-03-15</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>5.3</v>
       </c>
       <c r="AD17" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AE17" t="n">
         <v>5</v>
@@ -3513,7 +3580,7 @@
         <v>15</v>
       </c>
       <c r="AQ17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR17" t="n">
         <v>30</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-15-2013-14</t>
+          <t>2014-03-15</t>
         </is>
       </c>
     </row>
@@ -3578,16 +3645,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
       </c>
       <c r="F18" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G18" t="n">
-        <v>0.197</v>
+        <v>0.2</v>
       </c>
       <c r="H18" t="n">
         <v>48.5</v>
@@ -3596,16 +3663,16 @@
         <v>35.6</v>
       </c>
       <c r="J18" t="n">
-        <v>82.59999999999999</v>
+        <v>82.7</v>
       </c>
       <c r="K18" t="n">
         <v>0.431</v>
       </c>
       <c r="L18" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="M18" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="N18" t="n">
         <v>0.354</v>
@@ -3614,25 +3681,25 @@
         <v>16.2</v>
       </c>
       <c r="P18" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.757</v>
+        <v>0.758</v>
       </c>
       <c r="R18" t="n">
         <v>11.8</v>
       </c>
       <c r="S18" t="n">
-        <v>29.4</v>
+        <v>29.6</v>
       </c>
       <c r="T18" t="n">
-        <v>41.2</v>
+        <v>41.4</v>
       </c>
       <c r="U18" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="V18" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W18" t="n">
         <v>6.7</v>
@@ -3647,16 +3714,16 @@
         <v>20.9</v>
       </c>
       <c r="AA18" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="AB18" t="n">
         <v>94.59999999999999</v>
       </c>
       <c r="AC18" t="n">
-        <v>-8.199999999999999</v>
+        <v>-8</v>
       </c>
       <c r="AD18" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3686,7 +3753,7 @@
         <v>19</v>
       </c>
       <c r="AN18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO18" t="n">
         <v>25</v>
@@ -3698,7 +3765,7 @@
         <v>16</v>
       </c>
       <c r="AR18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AS18" t="n">
         <v>28</v>
@@ -3707,7 +3774,7 @@
         <v>25</v>
       </c>
       <c r="AU18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AV18" t="n">
         <v>18</v>
@@ -3716,10 +3783,10 @@
         <v>28</v>
       </c>
       <c r="AX18" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AY18" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ18" t="n">
         <v>18</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-15-2013-14</t>
+          <t>2014-03-15</t>
         </is>
       </c>
     </row>
@@ -3853,7 +3920,7 @@
         <v>24</v>
       </c>
       <c r="AI19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ19" t="n">
         <v>2</v>
@@ -3877,7 +3944,7 @@
         <v>3</v>
       </c>
       <c r="AQ19" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AR19" t="n">
         <v>2</v>
@@ -3886,7 +3953,7 @@
         <v>12</v>
       </c>
       <c r="AT19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AU19" t="n">
         <v>6</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-15-2013-14</t>
+          <t>2014-03-15</t>
         </is>
       </c>
     </row>
@@ -4020,16 +4087,16 @@
         <v>-2.6</v>
       </c>
       <c r="AD20" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="AE20" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF20" t="n">
         <v>20</v>
       </c>
       <c r="AG20" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH20" t="n">
         <v>12</v>
@@ -4092,7 +4159,7 @@
         <v>20</v>
       </c>
       <c r="BB20" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BC20" t="n">
         <v>22</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-15-2013-14</t>
+          <t>2014-03-15</t>
         </is>
       </c>
     </row>
@@ -4124,28 +4191,28 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E21" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F21" t="n">
         <v>40</v>
       </c>
       <c r="G21" t="n">
-        <v>0.403</v>
+        <v>0.394</v>
       </c>
       <c r="H21" t="n">
         <v>48.5</v>
       </c>
       <c r="I21" t="n">
-        <v>37.3</v>
+        <v>37.2</v>
       </c>
       <c r="J21" t="n">
-        <v>83.3</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K21" t="n">
-        <v>0.448</v>
+        <v>0.447</v>
       </c>
       <c r="L21" t="n">
         <v>9.199999999999999</v>
@@ -4154,16 +4221,16 @@
         <v>24.8</v>
       </c>
       <c r="N21" t="n">
-        <v>0.372</v>
+        <v>0.371</v>
       </c>
       <c r="O21" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="P21" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.751</v>
+        <v>0.75</v>
       </c>
       <c r="R21" t="n">
         <v>11</v>
@@ -4175,19 +4242,19 @@
         <v>40.9</v>
       </c>
       <c r="U21" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="V21" t="n">
         <v>13</v>
       </c>
       <c r="W21" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="X21" t="n">
         <v>4.7</v>
       </c>
       <c r="Y21" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="Z21" t="n">
         <v>22.2</v>
@@ -4196,13 +4263,13 @@
         <v>19.5</v>
       </c>
       <c r="AB21" t="n">
-        <v>98.90000000000001</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="AC21" t="n">
-        <v>-1.2</v>
+        <v>-1.6</v>
       </c>
       <c r="AD21" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AE21" t="n">
         <v>20</v>
@@ -4211,7 +4278,7 @@
         <v>21</v>
       </c>
       <c r="AG21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH21" t="n">
         <v>8</v>
@@ -4223,7 +4290,7 @@
         <v>14</v>
       </c>
       <c r="AK21" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AL21" t="n">
         <v>5</v>
@@ -4259,13 +4326,13 @@
         <v>2</v>
       </c>
       <c r="AW21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AX21" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AY21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AZ21" t="n">
         <v>26</v>
@@ -4277,7 +4344,7 @@
         <v>20</v>
       </c>
       <c r="BC21" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-15-2013-14</t>
+          <t>2014-03-15</t>
         </is>
       </c>
     </row>
@@ -4384,16 +4451,16 @@
         <v>6.9</v>
       </c>
       <c r="AD22" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="AE22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF22" t="n">
         <v>2</v>
       </c>
       <c r="AG22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH22" t="n">
         <v>25</v>
@@ -4402,7 +4469,7 @@
         <v>4</v>
       </c>
       <c r="AJ22" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK22" t="n">
         <v>4</v>
@@ -4414,7 +4481,7 @@
         <v>16</v>
       </c>
       <c r="AN22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AO22" t="n">
         <v>5</v>
@@ -4438,7 +4505,7 @@
         <v>14</v>
       </c>
       <c r="AV22" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AW22" t="n">
         <v>10</v>
@@ -4447,7 +4514,7 @@
         <v>2</v>
       </c>
       <c r="AY22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AZ22" t="n">
         <v>25</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-15-2013-14</t>
+          <t>2014-03-15</t>
         </is>
       </c>
     </row>
@@ -4605,7 +4672,7 @@
         <v>27</v>
       </c>
       <c r="AQ23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AR23" t="n">
         <v>24</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-15-2013-14</t>
+          <t>2014-03-15</t>
         </is>
       </c>
     </row>
@@ -4670,28 +4737,28 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
       </c>
       <c r="F24" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G24" t="n">
-        <v>0.227</v>
+        <v>0.231</v>
       </c>
       <c r="H24" t="n">
         <v>48.5</v>
       </c>
       <c r="I24" t="n">
-        <v>37.9</v>
+        <v>38</v>
       </c>
       <c r="J24" t="n">
         <v>88</v>
       </c>
       <c r="K24" t="n">
-        <v>0.431</v>
+        <v>0.432</v>
       </c>
       <c r="L24" t="n">
         <v>6.8</v>
@@ -4700,16 +4767,16 @@
         <v>22.1</v>
       </c>
       <c r="N24" t="n">
-        <v>0.305</v>
+        <v>0.306</v>
       </c>
       <c r="O24" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="P24" t="n">
         <v>23.5</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.716</v>
+        <v>0.719</v>
       </c>
       <c r="R24" t="n">
         <v>11.8</v>
@@ -4721,34 +4788,34 @@
         <v>43.4</v>
       </c>
       <c r="U24" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="V24" t="n">
-        <v>17.4</v>
+        <v>17.3</v>
       </c>
       <c r="W24" t="n">
-        <v>9.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="X24" t="n">
         <v>3.9</v>
       </c>
       <c r="Y24" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="Z24" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="AA24" t="n">
         <v>20.9</v>
       </c>
       <c r="AB24" t="n">
-        <v>99.40000000000001</v>
+        <v>99.7</v>
       </c>
       <c r="AC24" t="n">
-        <v>-11.5</v>
+        <v>-11.2</v>
       </c>
       <c r="AD24" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AE24" t="n">
         <v>29</v>
@@ -4769,7 +4836,7 @@
         <v>1</v>
       </c>
       <c r="AK24" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AL24" t="n">
         <v>23</v>
@@ -4781,19 +4848,19 @@
         <v>30</v>
       </c>
       <c r="AO24" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ24" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AR24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AS24" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AT24" t="n">
         <v>12</v>
@@ -4814,13 +4881,13 @@
         <v>30</v>
       </c>
       <c r="AZ24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BA24" t="n">
         <v>11</v>
       </c>
       <c r="BB24" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BC24" t="n">
         <v>30</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-15-2013-14</t>
+          <t>2014-03-15</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>2.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="AE25" t="n">
         <v>11</v>
@@ -4942,7 +5009,7 @@
         <v>12</v>
       </c>
       <c r="AH25" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI25" t="n">
         <v>9</v>
@@ -4963,7 +5030,7 @@
         <v>10</v>
       </c>
       <c r="AO25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP25" t="n">
         <v>10</v>
@@ -4975,7 +5042,7 @@
         <v>13</v>
       </c>
       <c r="AS25" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AT25" t="n">
         <v>13</v>
@@ -4990,7 +5057,7 @@
         <v>9</v>
       </c>
       <c r="AX25" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AY25" t="n">
         <v>9</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-15-2013-14</t>
+          <t>2014-03-15</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>4.4</v>
       </c>
       <c r="AD26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE26" t="n">
         <v>7</v>
@@ -5124,7 +5191,7 @@
         <v>7</v>
       </c>
       <c r="AH26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI26" t="n">
         <v>3</v>
@@ -5148,7 +5215,7 @@
         <v>6</v>
       </c>
       <c r="AP26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ26" t="n">
         <v>1</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-15-2013-14</t>
+          <t>2014-03-15</t>
         </is>
       </c>
     </row>
@@ -5216,85 +5283,85 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E27" t="n">
         <v>23</v>
       </c>
       <c r="F27" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G27" t="n">
-        <v>0.348</v>
+        <v>0.354</v>
       </c>
       <c r="H27" t="n">
         <v>48.4</v>
       </c>
       <c r="I27" t="n">
-        <v>36.9</v>
+        <v>37</v>
       </c>
       <c r="J27" t="n">
-        <v>82.59999999999999</v>
+        <v>82.5</v>
       </c>
       <c r="K27" t="n">
-        <v>0.447</v>
+        <v>0.448</v>
       </c>
       <c r="L27" t="n">
         <v>6.3</v>
       </c>
       <c r="M27" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="N27" t="n">
-        <v>0.335</v>
+        <v>0.337</v>
       </c>
       <c r="O27" t="n">
         <v>21</v>
       </c>
       <c r="P27" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.766</v>
+        <v>0.769</v>
       </c>
       <c r="R27" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="S27" t="n">
-        <v>32</v>
+        <v>31.9</v>
       </c>
       <c r="T27" t="n">
-        <v>44.2</v>
+        <v>44</v>
       </c>
       <c r="U27" t="n">
-        <v>19</v>
+        <v>19.2</v>
       </c>
       <c r="V27" t="n">
         <v>15.4</v>
       </c>
       <c r="W27" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="X27" t="n">
         <v>4</v>
       </c>
       <c r="Y27" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Z27" t="n">
         <v>22.8</v>
       </c>
       <c r="AA27" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="AB27" t="n">
-        <v>101.1</v>
+        <v>101.3</v>
       </c>
       <c r="AC27" t="n">
-        <v>-2.4</v>
+        <v>-2.3</v>
       </c>
       <c r="AD27" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AE27" t="n">
         <v>24</v>
@@ -5306,16 +5373,16 @@
         <v>24</v>
       </c>
       <c r="AH27" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AI27" t="n">
         <v>21</v>
       </c>
       <c r="AJ27" t="n">
+        <v>18</v>
+      </c>
+      <c r="AK27" t="n">
         <v>17</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>18</v>
       </c>
       <c r="AL27" t="n">
         <v>25</v>
@@ -5333,7 +5400,7 @@
         <v>4</v>
       </c>
       <c r="AQ27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR27" t="n">
         <v>6</v>
@@ -5348,16 +5415,16 @@
         <v>30</v>
       </c>
       <c r="AV27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW27" t="n">
         <v>19</v>
       </c>
       <c r="AX27" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AY27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ27" t="n">
         <v>27</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-15-2013-14</t>
+          <t>2014-03-15</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>7.1</v>
       </c>
       <c r="AD28" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="AE28" t="n">
         <v>1</v>
@@ -5488,13 +5555,13 @@
         <v>1</v>
       </c>
       <c r="AH28" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI28" t="n">
         <v>1</v>
       </c>
       <c r="AJ28" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AK28" t="n">
         <v>2</v>
@@ -5536,7 +5603,7 @@
         <v>17</v>
       </c>
       <c r="AX28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY28" t="n">
         <v>16</v>
@@ -5545,7 +5612,7 @@
         <v>1</v>
       </c>
       <c r="BA28" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BB28" t="n">
         <v>7</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-15-2013-14</t>
+          <t>2014-03-15</t>
         </is>
       </c>
     </row>
@@ -5709,7 +5776,7 @@
         <v>16</v>
       </c>
       <c r="AU29" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AV29" t="n">
         <v>9</v>
@@ -5721,7 +5788,7 @@
         <v>22</v>
       </c>
       <c r="AY29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ29" t="n">
         <v>29</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-15-2013-14</t>
+          <t>2014-03-15</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>-6</v>
       </c>
       <c r="AD30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE30" t="n">
         <v>25</v>
@@ -5852,13 +5919,13 @@
         <v>25</v>
       </c>
       <c r="AH30" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI30" t="n">
         <v>27</v>
       </c>
       <c r="AJ30" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK30" t="n">
         <v>23</v>
@@ -5870,7 +5937,7 @@
         <v>23</v>
       </c>
       <c r="AN30" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO30" t="n">
         <v>23</v>
@@ -5879,7 +5946,7 @@
         <v>21</v>
       </c>
       <c r="AQ30" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AR30" t="n">
         <v>20</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-15-2013-14</t>
+          <t>2014-03-15</t>
         </is>
       </c>
     </row>
@@ -5944,25 +6011,25 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E31" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F31" t="n">
         <v>31</v>
       </c>
       <c r="G31" t="n">
-        <v>0.53</v>
+        <v>0.523</v>
       </c>
       <c r="H31" t="n">
         <v>49</v>
       </c>
       <c r="I31" t="n">
-        <v>38.5</v>
+        <v>38.6</v>
       </c>
       <c r="J31" t="n">
-        <v>84.7</v>
+        <v>84.8</v>
       </c>
       <c r="K31" t="n">
         <v>0.455</v>
@@ -5971,31 +6038,31 @@
         <v>8.1</v>
       </c>
       <c r="M31" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="N31" t="n">
-        <v>0.386</v>
+        <v>0.387</v>
       </c>
       <c r="O31" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="P31" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.731</v>
+        <v>0.729</v>
       </c>
       <c r="R31" t="n">
         <v>11</v>
       </c>
       <c r="S31" t="n">
-        <v>31.4</v>
+        <v>31.5</v>
       </c>
       <c r="T31" t="n">
-        <v>42.4</v>
+        <v>42.5</v>
       </c>
       <c r="U31" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="V31" t="n">
         <v>14.6</v>
@@ -6007,37 +6074,37 @@
         <v>4.7</v>
       </c>
       <c r="Y31" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Z31" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AA31" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="AB31" t="n">
         <v>100.5</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="AD31" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AE31" t="n">
         <v>14</v>
       </c>
       <c r="AF31" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG31" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH31" t="n">
         <v>1</v>
       </c>
       <c r="AI31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ31" t="n">
         <v>8</v>
@@ -6079,7 +6146,7 @@
         <v>13</v>
       </c>
       <c r="AW31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX31" t="n">
         <v>15</v>
@@ -6091,7 +6158,7 @@
         <v>16</v>
       </c>
       <c r="BA31" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BB31" t="n">
         <v>16</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-15-2013-14</t>
+          <t>2014-03-15</t>
         </is>
       </c>
     </row>
